--- a/Log/State.xlsx
+++ b/Log/State.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AutoTrain\GAME\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD3095-6503-499C-87D3-E7DFCF0F7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27771EE0-9652-477F-B1EC-C7461E2EA0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16200" yWindow="3330" windowWidth="12885" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>File</t>
   </si>
@@ -43,71 +43,65 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>AgentBias1</t>
-  </si>
-  <si>
-    <t>AgentBias2</t>
-  </si>
-  <si>
-    <t>AgentBias3</t>
-  </si>
-  <si>
-    <t>AgentBias4</t>
-  </si>
-  <si>
-    <t>AgentBias5</t>
-  </si>
-  <si>
-    <t>AgentBias6</t>
-  </si>
-  <si>
-    <t>AgentBias7</t>
-  </si>
-  <si>
-    <t>AgentBias8</t>
-  </si>
-  <si>
-    <t>AgentBias9</t>
-  </si>
-  <si>
-    <t>AgentBias10</t>
-  </si>
-  <si>
-    <t>AgentBias11</t>
-  </si>
-  <si>
-    <t>AgentBias12</t>
-  </si>
-  <si>
-    <t>AgentBias13</t>
-  </si>
-  <si>
-    <t>AgentBias14</t>
-  </si>
-  <si>
-    <t>AgentBias15</t>
-  </si>
-  <si>
-    <t>AgentBias16</t>
-  </si>
-  <si>
-    <t>AgentBias17</t>
-  </si>
-  <si>
-    <t>AgentBias18</t>
-  </si>
-  <si>
-    <t>AgentBias19</t>
-  </si>
-  <si>
-    <t>AgentBias20</t>
+    <t>Splendor_v2</t>
+  </si>
+  <si>
+    <t>Splendor_v3</t>
+  </si>
+  <si>
+    <t>TLMN_v2</t>
+  </si>
+  <si>
+    <t>TLMN</t>
+  </si>
+  <si>
+    <t>MachiKoro</t>
+  </si>
+  <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>SushiGo</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>BiasAlgorihm</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>Chain3Algorithm</t>
+  </si>
+  <si>
+    <t>FusiondeepNNAlgorithm</t>
+  </si>
+  <si>
+    <t>FusionwideNNAlgorithm</t>
+  </si>
+  <si>
+    <t>GreedyAlgorithm</t>
+  </si>
+  <si>
+    <t>sNNdeepAlgorithm</t>
+  </si>
+  <si>
+    <t>sNNwideAlgorithm</t>
+  </si>
+  <si>
+    <t>ValueGreedyAlgorithm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,12 +113,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -469,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,172 +487,172 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>5376</v>
+      </c>
+      <c r="I2">
+        <v>4673</v>
+      </c>
+      <c r="J2">
+        <v>4376</v>
+      </c>
+      <c r="K2">
+        <v>3435</v>
+      </c>
+      <c r="L2">
+        <v>7106</v>
+      </c>
+      <c r="M2">
+        <v>8120</v>
+      </c>
+      <c r="N2">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>9750</v>
+      </c>
+      <c r="I3">
+        <v>5643</v>
+      </c>
+      <c r="J3">
+        <v>5183</v>
+      </c>
+      <c r="K3">
+        <v>4286</v>
+      </c>
+      <c r="L3">
+        <v>9162</v>
+      </c>
+      <c r="M3">
+        <v>9310</v>
+      </c>
+      <c r="N3">
+        <v>9249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Log/State.xlsx
+++ b/Log/State.xlsx
@@ -1,123 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\AutoTrain\GAME\Log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27771EE0-9652-477F-B1EC-C7461E2EA0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="3330" windowWidth="12885" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Time1</t>
-  </si>
-  <si>
-    <t>Time2</t>
-  </si>
-  <si>
-    <t>STATE</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>Splendor_v2</t>
-  </si>
-  <si>
-    <t>Splendor_v3</t>
-  </si>
-  <si>
-    <t>TLMN_v2</t>
-  </si>
-  <si>
-    <t>TLMN</t>
-  </si>
-  <si>
-    <t>MachiKoro</t>
-  </si>
-  <si>
-    <t>Sheriff</t>
-  </si>
-  <si>
-    <t>SushiGo</t>
-  </si>
-  <si>
-    <t>Trang</t>
-  </si>
-  <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>BiasAlgorihm</t>
-  </si>
-  <si>
-    <t>RUNNING</t>
-  </si>
-  <si>
-    <t>Chain3Algorithm</t>
-  </si>
-  <si>
-    <t>FusiondeepNNAlgorithm</t>
-  </si>
-  <si>
-    <t>FusionwideNNAlgorithm</t>
-  </si>
-  <si>
-    <t>GreedyAlgorithm</t>
-  </si>
-  <si>
-    <t>sNNdeepAlgorithm</t>
-  </si>
-  <si>
-    <t>sNNwideAlgorithm</t>
-  </si>
-  <si>
-    <t>ValueGreedyAlgorithm</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -132,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -456,203 +420,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>STATE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>NOTE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Splendor_v2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Splendor_v3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TLMN_v2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TLMN</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MachiKoro</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sheriff</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SushiGo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Trang</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>5376</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>4673</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>4376</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>3435</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>7106</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>8120</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>6031</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>An</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
         <v>9750</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>5643</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>5183</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>4286</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>9162</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>9310</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>9249</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BiasAlgorihm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>BiasAlgorihm</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>9827</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5635</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6420</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4368</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8487</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9550</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chain3Algorithm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chain3Algorithm</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>9565</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4107</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4845</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>8871</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9357</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FusiondeepNNAlgorithm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FusiondeepNNAlgorithm</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>4061</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FusionwideNNAlgorithm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FusionwideNNAlgorithm</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GreedyAlgorithm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GreedyAlgorithm</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sNNdeepAlgorithm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sNNdeepAlgorithm</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sNNwideAlgorithm</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sNNwideAlgorithm</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ValueGreedyAlgorithm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ValueGreedyAlgorithm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Log/State.xlsx
+++ b/Log/State.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>SushiGo</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Catan_v2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>StoneAge</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Century</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,6 +557,21 @@
       <c r="N2" t="n">
         <v>6031</v>
       </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +610,21 @@
       <c r="N3" t="n">
         <v>9249</v>
       </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -618,11 +663,26 @@
       <c r="N4" t="n">
         <v>8856</v>
       </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chain3Algorithm</t>
+          <t>MultiDimensionAlgorithm</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -631,175 +691,36 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chain3Algorithm</t>
+          <t>MultiDimensionAlgorithm</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>9565</v>
+        <v>9830</v>
       </c>
       <c r="I5" t="n">
-        <v>4107</v>
+        <v>5559</v>
       </c>
       <c r="J5" t="n">
-        <v>4845</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>6420</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5478</v>
+      </c>
       <c r="L5" t="n">
-        <v>8871</v>
+        <v>8759</v>
       </c>
       <c r="M5" t="n">
-        <v>9357</v>
+        <v>9002</v>
       </c>
       <c r="N5" t="n">
-        <v>7830</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FusiondeepNNAlgorithm</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>FusiondeepNNAlgorithm</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>4061</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FusionwideNNAlgorithm</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>FusionwideNNAlgorithm</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GreedyAlgorithm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>GreedyAlgorithm</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>sNNdeepAlgorithm</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>sNNdeepAlgorithm</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sNNwideAlgorithm</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>sNNwideAlgorithm</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>ValueGreedyAlgorithm</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ValueGreedyAlgorithm</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+        <v>8831</v>
+      </c>
+      <c r="O5" t="n">
+        <v>8071</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
